--- a/Data/Empirical Data.xlsx
+++ b/Data/Empirical Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Nodes</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>Heap</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+  </si>
+  <si>
+    <t>Avg Time Array</t>
+  </si>
+  <si>
+    <t>Avg Time Heap</t>
   </si>
 </sst>
 </file>
@@ -56,7 +68,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -131,17 +143,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,6 +186,1811 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Time Array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.74E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4084000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133400.19</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2.7299999999999999E+41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36A7-4730-A0CA-BD369C6306F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="320661856"/>
+        <c:axId val="333038016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="320661856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333038016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="333038016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="320661856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Time Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$22:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5911999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9697-4394-AAA9-F080660706B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243638336"/>
+        <c:axId val="242785552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243638336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242785552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="242785552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243638336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767776E8-D213-4E85-A151-9CAD1D60AC7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2671BB0F-8698-4BA8-8F9E-FC17B75699C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F21:F26" totalsRowShown="0">
+  <autoFilter ref="F21:F26"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Avg Time Array"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="G21:G26" totalsRowShown="0">
+  <autoFilter ref="G21:G26"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Avg Time Heap"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,20 +2290,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G21" sqref="G21:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,63 +2330,137 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <v>100</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="C3" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(C3:G3)/5</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <f>SUM(C4:G4)/5</f>
+        <v>5.7400000000000007E-2</v>
+      </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>10000</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="C5" s="5">
+        <v>4.367</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.3479999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.3280000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.5209999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <f>SUM(C5:G5)/5</f>
+        <v>4.4084000000000003</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>100000</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="4">
+        <v>99707.85</v>
+      </c>
+      <c r="D6" s="2">
+        <v>103278.3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>127755.8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>174552.8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>161706.20000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(C6:G6)</f>
+        <v>133400.19</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>1000000</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="C7" s="6">
+        <v>9.7686599999999996E+39</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.2944100000000001E+40</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.2944100000000001E+40</v>
+      </c>
+      <c r="F7" s="7">
+        <v>8.6181600000000004E+41</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4.6749999999999997E+41</v>
+      </c>
+      <c r="H7" s="7">
+        <f>AVERAGE(C7:G7)</f>
+        <v>2.72994572E+41</v>
+      </c>
     </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,61 +2476,228 @@
       <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="9">
         <v>5</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <v>100</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="C12" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <f>AVERAGE(C12:G12)</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <v>1000</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="2">
+        <f>AVERAGE(C13:G13)</f>
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <v>10000</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <f>AVERAGE(C14:G14)</f>
+        <v>1.4000000000000002E-2</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <v>100000</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.184</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.192</v>
+      </c>
+      <c r="H15" s="2">
+        <f>AVERAGE(C15:G15)</f>
+        <v>0.18119999999999997</v>
+      </c>
     </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>1000000</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="5">
+        <v>4.6059999999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4.5529999999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="H16" s="2">
+        <f>AVERAGE(C16:G16)</f>
+        <v>4.5911999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>5.74E-2</v>
+      </c>
+      <c r="G23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>10000</v>
+      </c>
+      <c r="F24">
+        <v>4.4084000000000003</v>
+      </c>
+      <c r="G24">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>100000</v>
+      </c>
+      <c r="F25">
+        <v>133400.19</v>
+      </c>
+      <c r="G25">
+        <v>0.1812</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>1000000</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2.7299999999999999E+41</v>
+      </c>
+      <c r="G26">
+        <v>4.5911999999999997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!B12:B16</xm:f>
+              <xm:sqref>B21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>